--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Spp1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Spp1-Itgav.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>282.7879796666667</v>
+        <v>0.04941833333333333</v>
       </c>
       <c r="H2">
-        <v>848.3639390000001</v>
+        <v>0.148255</v>
       </c>
       <c r="I2">
-        <v>0.9674521741401267</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="J2">
-        <v>0.9674521741401266</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N2">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O2">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P2">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q2">
-        <v>5966.640107950727</v>
+        <v>0.1857999198388889</v>
       </c>
       <c r="R2">
-        <v>53699.76097155655</v>
+        <v>1.67219927855</v>
       </c>
       <c r="S2">
-        <v>0.2822286508184664</v>
+        <v>0.0003533320511098619</v>
       </c>
       <c r="T2">
-        <v>0.2822286508184664</v>
+        <v>0.0003533320511098619</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>282.7879796666667</v>
+        <v>0.04941833333333333</v>
       </c>
       <c r="H3">
-        <v>848.3639390000001</v>
+        <v>0.148255</v>
       </c>
       <c r="I3">
-        <v>0.9674521741401267</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="J3">
-        <v>0.9674521741401266</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q3">
-        <v>10129.30641055277</v>
+        <v>1.770136910423889</v>
       </c>
       <c r="R3">
-        <v>91163.75769497492</v>
+        <v>15.931232193815</v>
       </c>
       <c r="S3">
-        <v>0.4791273531258807</v>
+        <v>0.003366234527160639</v>
       </c>
       <c r="T3">
-        <v>0.4791273531258807</v>
+        <v>0.003366234527160638</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>282.7879796666667</v>
+        <v>0.04941833333333333</v>
       </c>
       <c r="H4">
-        <v>848.3639390000001</v>
+        <v>0.148255</v>
       </c>
       <c r="I4">
-        <v>0.9674521741401267</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="J4">
-        <v>0.9674521741401266</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q4">
-        <v>4357.111411683502</v>
+        <v>0.7614226897722223</v>
       </c>
       <c r="R4">
-        <v>39214.00270515151</v>
+        <v>6.852804207949999</v>
       </c>
       <c r="S4">
-        <v>0.2060961701957797</v>
+        <v>0.001447982544729263</v>
       </c>
       <c r="T4">
-        <v>0.2060961701957797</v>
+        <v>0.001447982544729263</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>23.14409</v>
       </c>
       <c r="I5">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="J5">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N5">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O5">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P5">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q5">
-        <v>162.7750182531289</v>
+        <v>29.00522792987778</v>
       </c>
       <c r="R5">
-        <v>1464.97516427816</v>
+        <v>261.0470513689</v>
       </c>
       <c r="S5">
-        <v>0.007699437699839762</v>
+        <v>0.05515867114614176</v>
       </c>
       <c r="T5">
-        <v>0.007699437699839762</v>
+        <v>0.05515867114614174</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>23.14409</v>
       </c>
       <c r="I6">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="J6">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q6">
         <v>276.3360963689078</v>
@@ -818,10 +818,10 @@
         <v>2487.02486732017</v>
       </c>
       <c r="S6">
-        <v>0.01307100180999933</v>
+        <v>0.5255029163111752</v>
       </c>
       <c r="T6">
-        <v>0.01307100180999933</v>
+        <v>0.5255029163111751</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>23.14409</v>
       </c>
       <c r="I7">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="J7">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q7">
         <v>118.8657061153445</v>
@@ -880,10 +880,10 @@
         <v>1069.7913550381</v>
       </c>
       <c r="S7">
-        <v>0.005622478858883277</v>
+        <v>0.2260445741030191</v>
       </c>
       <c r="T7">
-        <v>0.005622478858883276</v>
+        <v>0.226044574103019</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>5.397271</v>
       </c>
       <c r="I8">
-        <v>0.006154907491150983</v>
+        <v>0.1881262893166642</v>
       </c>
       <c r="J8">
-        <v>0.006154907491150982</v>
+        <v>0.1881262893166643</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N8">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O8">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P8">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q8">
-        <v>37.95962103250044</v>
+        <v>6.764105892878888</v>
       </c>
       <c r="R8">
-        <v>341.636589292504</v>
+        <v>60.87695303590999</v>
       </c>
       <c r="S8">
-        <v>0.001795531896637623</v>
+        <v>0.01286316706233028</v>
       </c>
       <c r="T8">
-        <v>0.001795531896637623</v>
+        <v>0.01286316706233028</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.397271</v>
       </c>
       <c r="I9">
-        <v>0.006154907491150983</v>
+        <v>0.1881262893166642</v>
       </c>
       <c r="J9">
-        <v>0.006154907491150982</v>
+        <v>0.1881262893166643</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q9">
         <v>64.44240405153589</v>
@@ -1004,10 +1004,10 @@
         <v>579.9816364638231</v>
       </c>
       <c r="S9">
-        <v>0.003048196710696204</v>
+        <v>0.122548851591129</v>
       </c>
       <c r="T9">
-        <v>0.003048196710696204</v>
+        <v>0.122548851591129</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.397271</v>
       </c>
       <c r="I10">
-        <v>0.006154907491150983</v>
+        <v>0.1881262893166642</v>
       </c>
       <c r="J10">
-        <v>0.006154907491150982</v>
+        <v>0.1881262893166643</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q10">
         <v>27.71983813193222</v>
@@ -1066,10 +1066,10 @@
         <v>249.47854318739</v>
       </c>
       <c r="S10">
-        <v>0.001311178883817156</v>
+        <v>0.05271427066320497</v>
       </c>
       <c r="T10">
-        <v>0.001311178883817156</v>
+        <v>0.05271427066320497</v>
       </c>
     </row>
   </sheetData>
